--- a/docs/LTA1_C/LTA1_C_07.08.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731792150.7809973</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731792154.7767801</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792150.7809973.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792154.7767801.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.97</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.7799999999999727</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731792155.2805262</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731792155.2805262.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731792155.2805262.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>279.46</v>
       </c>
-      <c r="J4" t="n">
-        <v>279.46</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>281.39</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.930000000000007</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731792158.821048</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731792161.9375603</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792158.821048.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792161.9375603.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>128.66</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>128</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.6599999999999966</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -687,95 +721,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731792163.6542249</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731792163.6542249.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731792163.6542249.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>127.82</v>
       </c>
-      <c r="J6" t="n">
-        <v>127.82</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>128.61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.7900000000000205</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731792167.4950862</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731792170.6399848</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792167.4950862.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792170.6399848.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6408</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6425</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>17</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -783,95 +829,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731792173.5408478</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731792173.5408478.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731792173.5408478.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6425</v>
       </c>
-      <c r="J8" t="n">
-        <v>6425</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6480.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-55.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731792176.1864402</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731792178.9555228</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792176.1864402.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792178.9555228.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>494.1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>496.8</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.699999999999989</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -879,51 +937,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731792178.9872649</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731792179.2760966</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792178.9872649.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792179.2760966.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>497.95</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>495.45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>2.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -931,51 +995,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731792179.366262</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731792179.831348</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792179.366262.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792179.831348.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>498.35</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>495.45</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>2.900000000000034</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -983,95 +1053,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731792180.548879</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731792180.548879.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731792180.548879.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>498.6</v>
       </c>
-      <c r="J12" t="n">
-        <v>498.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>503.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-5.199999999999989</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731792184.5864558</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731792189.5811713</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792184.5864558.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792189.5811713.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>225.41</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>224.06</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.349999999999994</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -1079,51 +1161,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731792190.0699637</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731792191.8879209</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792190.0699637.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792191.8879209.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>224.68</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>224.81</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1131,95 +1219,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731792192.4674678</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731792192.4674678.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731792192.4674678.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>225.92</v>
       </c>
-      <c r="J15" t="n">
-        <v>225.92</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>225.97</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731792193.0745041</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731792196.5442796</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792193.0745041.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792196.5442796.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1004</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1004</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1227,95 +1327,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731792197.4725144</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731792197.4725144.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731792197.4725144.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1005.8</v>
       </c>
-      <c r="J17" t="n">
-        <v>1005.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1011.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-5.400000000000091</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731792201.402133</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731792204.2711174</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792201.402133.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792204.2711174.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>11.856</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>11.882</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.0259999999999998</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1323,51 +1435,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731792204.747414</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731792207.836936</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792204.747414.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792207.836936.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>11.897</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>11.883</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.01400000000000112</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1375,95 +1493,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731792208.1568193</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731792208.1568193.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731792208.1568193.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>11.889</v>
       </c>
-      <c r="J20" t="n">
-        <v>11.889</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>11.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.01100000000000101</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731792209.369354</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731792214.905208</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792209.369354.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792214.905208.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>124.74</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>123.16</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-1.579999999999998</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-1.27</v>
       </c>
     </row>
@@ -1471,51 +1601,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731792215.194782</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731792215.5531206</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792215.194782.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792215.5531206.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>122.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>123.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1523,95 +1659,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731792216.9139843</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731792216.9139843.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731792216.9139843.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>123.58</v>
       </c>
-      <c r="J23" t="n">
-        <v>123.58</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>124.14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.5600000000000023</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731792218.4554992</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731792220.8401425</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792218.4554992.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792220.8401425.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>160.1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>159.58</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.5199999999999818</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1619,51 +1767,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731792222.447462</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731792225.2629037</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792222.447462.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792225.2629037.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>159.88</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>159.64</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1671,95 +1825,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731792225.7801337</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731792225.7801337.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731792225.7801337.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>160.38</v>
       </c>
-      <c r="J26" t="n">
-        <v>160.38</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>160.34</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731792226.8059254</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731792231.23025</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792226.8059254.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792231.23025.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>49.11</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>48.675</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.4350000000000023</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -1767,51 +1933,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731792231.7072847</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731792233.9371908</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792231.7072847.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792233.9371908.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>48.75</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>48.72</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1819,95 +1991,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731792234.153614</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731792234.153614.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731792234.153614.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>48.935</v>
       </c>
-      <c r="J29" t="n">
-        <v>48.935</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>49.19</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.2549999999999955</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731792235.7215686</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731792237.7447424</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792235.7215686.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792237.7447424.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1363.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1365.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1915,95 +2099,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731792237.8712034</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731792237.8712034.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731792237.8712034.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1373.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>1373.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1382.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-8.600000000000136</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731792243.5115</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731792245.7674036</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792243.5115.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792245.7674036.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>59.87</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>60.19</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3200000000000003</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -2011,51 +2207,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731792246.2049851</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731792247.0621817</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792246.2049851.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792247.0621817.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>60.34</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>59.92</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -2063,95 +2265,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731792248.019765</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731792248.019765.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731792248.019765.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>60.23</v>
       </c>
-      <c r="J34" t="n">
-        <v>60.23</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>60.67</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.4400000000000048</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731792251.7734861</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731792254.1474092</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792251.7734861.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792254.1474092.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>96.12</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>95.98</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2159,95 +2373,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731792254.3820674</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731792254.3820674.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731792254.3820674.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>96.56999999999999</v>
       </c>
-      <c r="J36" t="n">
-        <v>96.56999999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>98.11</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-1.540000000000006</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731792260.7241297</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731792263.2221966</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792260.7241297.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792263.2221966.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>55.41</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>55.59</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2255,95 +2481,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731792265.3105414</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731792265.3105414.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731792265.3105414.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>55.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>56.31</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.8100000000000023</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731792268.764009</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731792271.0898032</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792268.764009.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792271.0898032.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>143.42</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>142.5</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.9199999999999875</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -2351,95 +2589,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731792273.1268764</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731792273.1268764.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731792273.1268764.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>143.7</v>
       </c>
-      <c r="J40" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>145.96</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-2.260000000000019</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731792276.8252678</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731792279.2517066</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792276.8252678.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792279.2517066.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>19.783</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>19.838</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2447,95 +2697,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731792281.6834636</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731792281.6834636.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731792281.6834636.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>19.844</v>
       </c>
-      <c r="J42" t="n">
-        <v>19.844</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>20.265</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.4209999999999994</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-2.12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731792284.9289691</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731792287.4320326</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792284.9289691.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792287.4320326.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>668.6</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>669.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.199999999999932</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2543,51 +2805,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731792290.1420088</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731792290.912134</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792290.1420088.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792290.912134.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>669.35</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>667.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.950000000000045</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2595,51 +2863,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731792291.131576</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731792292.05483</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792291.131576.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792292.05483.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>670.3</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>669.15</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2647,95 +2921,107 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731792292.4579287</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731792292.4579287.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731792292.4579287.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>671.15</v>
       </c>
-      <c r="J46" t="n">
-        <v>671.15</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>674.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-3.350000000000023</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731792293.2610204</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731792296.1452096</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792293.2610204.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792296.1452096.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>147.99</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>148.36</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2743,95 +3029,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731792298.5792868</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731792298.5792868.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731792298.5792868.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>148.68</v>
       </c>
-      <c r="J48" t="n">
-        <v>148.68</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>155.8</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-7.120000000000005</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-4.79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731792301.7776783</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731792302.3783882</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792301.7776783.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792302.3783882.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.09516000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.0003599999999999992</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2839,51 +3137,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731792302.7981706</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731792303.379711</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792302.7981706.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792303.379711.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>0.09516000000000001</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.09546</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.0002999999999999947</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2891,51 +3195,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731792303.6149151</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731792303.9478712</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792303.6149151.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792303.9478712.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.09502000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.0955</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0004799999999999943</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2943,95 +3253,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731792304.2281537</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731792304.2281537.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731792304.2281537.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>0.09578</v>
       </c>
-      <c r="J52" t="n">
-        <v>0.09578</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.09752</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.001739999999999992</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731792310.0216005</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731792312.8969972</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792310.0216005.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792312.8969972.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2899.5</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2898.2</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.300000000000182</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3039,44 +3361,50 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731792315.1609645</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731792315.1609645.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731792315.1609645.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2901.8</v>
       </c>
-      <c r="J54" t="n">
-        <v>2901.8</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>2919.65</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-17.84999999999991</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -3137,19 +3465,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.100000000000023</v>
+        <v>2.900000000000034</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.025000000000006</v>
+        <v>0.7250000000000085</v>
       </c>
       <c r="E2" t="n">
-        <v>1.63</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -3159,19 +3487,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001139999999999988</v>
+        <v>-0.0006000000000000033</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002849999999999971</v>
+        <v>-0.0001500000000000008</v>
       </c>
       <c r="E3" t="n">
-        <v>1.21</v>
+        <v>-0.6100000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="4">
@@ -3181,19 +3509,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.299999999999955</v>
+        <v>0.9499999999999318</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.074999999999989</v>
+        <v>0.2374999999999829</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3531,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04000000000000092</v>
+        <v>0.05100000000000193</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01333333333333364</v>
+        <v>0.01700000000000064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -3225,19 +3553,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.079999999999998</v>
+        <v>-1.640000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3599999999999994</v>
+        <v>-0.5466666666666669</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.86</v>
+        <v>-1.31</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.29</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="7">
@@ -3247,19 +3575,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4050000000000011</v>
+        <v>-0.6599999999999966</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1350000000000004</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8300000000000001</v>
+        <v>-1.35</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.28</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="8">
@@ -3269,19 +3597,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.47999999999999</v>
+        <v>-1.530000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4933333333333299</v>
+        <v>-0.5100000000000003</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.6599999999999999</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="9">
@@ -3291,19 +3619,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.740000000000002</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2466666666666673</v>
+        <v>0.09999999999999905</v>
       </c>
       <c r="E9" t="n">
-        <v>1.23</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
@@ -3313,19 +3641,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2799999999999727</v>
+        <v>-0.2399999999999807</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09333333333332423</v>
+        <v>-0.07999999999999356</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11">
@@ -3335,19 +3663,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05499999999999972</v>
+        <v>-0.3659999999999997</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02749999999999986</v>
+        <v>-0.1829999999999998</v>
       </c>
       <c r="E11" t="n">
-        <v>0.28</v>
+        <v>-1.84</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="12">
@@ -3357,19 +3685,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1400000000000006</v>
+        <v>-1.680000000000007</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.07000000000000028</v>
+        <v>-0.8400000000000034</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.15</v>
+        <v>-1.74</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="13">
@@ -3379,19 +3707,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.9199999999999875</v>
+        <v>-3.180000000000007</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4599999999999937</v>
+        <v>-1.590000000000003</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.64</v>
+        <v>-2.21</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.32</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="14">
@@ -3401,19 +3729,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1800000000000068</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09000000000000341</v>
+        <v>-0.3149999999999977</v>
       </c>
       <c r="E14" t="n">
-        <v>0.32</v>
+        <v>-1.14</v>
       </c>
       <c r="F14" t="n">
-        <v>0.16</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="15">
@@ -3423,19 +3751,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.7799999999999727</v>
+        <v>-2.70999999999998</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3899999999999864</v>
+        <v>-1.35499999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.28</v>
+        <v>-0.97</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.14</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="16">
@@ -3445,19 +3773,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3700000000000045</v>
+        <v>-6.75</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1850000000000023</v>
+        <v>-3.375</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>-4.54</v>
       </c>
       <c r="F16" t="n">
-        <v>0.12</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="17">
@@ -3467,19 +3795,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.400000000000091</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2.700000000000045</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="18">
@@ -3489,19 +3817,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.300000000000182</v>
+        <v>-19.15000000000009</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6500000000000909</v>
+        <v>-9.575000000000045</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04</v>
+        <v>-0.66</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="19">
@@ -3511,19 +3839,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>-38.5</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>8.5</v>
+        <v>-19.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.27</v>
+        <v>-0.59</v>
       </c>
       <c r="F19" t="n">
-        <v>0.14</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="20">
@@ -3533,19 +3861,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.6599999999999966</v>
+        <v>-1.450000000000017</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3299999999999983</v>
+        <v>-0.7250000000000085</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.51</v>
+        <v>-1.13</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.26</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3555,19 +3883,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.399999999999864</v>
+        <v>-6.200000000000273</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.199999999999932</v>
+        <v>-3.100000000000136</v>
       </c>
       <c r="E21" t="n">
-        <v>0.18</v>
+        <v>-0.45</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="22">
